--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>SCRUM 1</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Disallow pieces to move to a spot with a piece in it</t>
   </si>
   <si>
-    <t>Track where pieces have been, they are not allows to be in the same space</t>
-  </si>
-  <si>
     <t>Track multiple jumps</t>
   </si>
   <si>
@@ -280,19 +277,16 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Product Burndown</t>
-  </si>
-  <si>
-    <t>Hours Completed</t>
-  </si>
-  <si>
-    <t>Sprint 1 Burndown</t>
-  </si>
-  <si>
-    <t>Sprint 2 Burndown</t>
-  </si>
-  <si>
-    <t>Sprint 3 Burndown</t>
+    <t>Track where pieces have been, they are not allowed to be in the same space</t>
+  </si>
+  <si>
+    <t>Completed Hours</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Hours Remaining</t>
   </si>
 </sst>
 </file>
@@ -316,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +323,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -353,11 +353,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,6 +396,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +440,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Product</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Burndown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -426,11 +474,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Product Burndown'!$F$3</c:f>
+              <c:f>'Product Burndown'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Product Burndown</c:v>
+                  <c:v>Hours Remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -457,21 +505,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product Burndown'!$G$3:$J$3</c:f>
+              <c:f>'Product Burndown'!$G$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49464064"/>
-        <c:axId val="49465600"/>
+        <c:axId val="168271232"/>
+        <c:axId val="168277120"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="49464064"/>
+        <c:axId val="168271232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49465600"/>
+        <c:crossAx val="168277120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -506,18 +554,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49465600"/>
+        <c:axId val="168277120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49464064"/>
+        <c:crossAx val="168271232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -549,6 +616,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 1 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -563,11 +645,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$E$3</c:f>
+              <c:f>'Sprint 1'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1 Burndown</c:v>
+                  <c:v>Hours Remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -594,11 +676,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$F$3:$I$3</c:f>
+              <c:f>'Sprint 1'!$F$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -613,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98508160"/>
-        <c:axId val="98514048"/>
+        <c:axId val="170054784"/>
+        <c:axId val="170056320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="98508160"/>
+        <c:axId val="170054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98514048"/>
+        <c:crossAx val="170056320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,18 +725,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98514048"/>
+        <c:axId val="170056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98508160"/>
+        <c:crossAx val="170054784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -677,6 +787,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 2 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -691,11 +816,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$E$3</c:f>
+              <c:f>'Sprint 2'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 2 Burndown</c:v>
+                  <c:v>Hours Remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -722,11 +847,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$F$3:$I$3</c:f>
+              <c:f>'Sprint 2'!$F$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -741,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98539008"/>
-        <c:axId val="98540544"/>
+        <c:axId val="171539072"/>
+        <c:axId val="171540864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="98539008"/>
+        <c:axId val="171539072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98540544"/>
+        <c:crossAx val="171540864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,18 +896,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98540544"/>
+        <c:axId val="171540864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98539008"/>
+        <c:crossAx val="171539072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -805,6 +958,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 3 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -819,11 +987,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$E$3</c:f>
+              <c:f>'Sprint 3'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 3 Burndown</c:v>
+                  <c:v>Hours Remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,11 +1018,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$F$3:$I$3</c:f>
+              <c:f>'Sprint 3'!$F$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -869,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98418048"/>
-        <c:axId val="98440320"/>
+        <c:axId val="171280256"/>
+        <c:axId val="171281792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="98418048"/>
+        <c:axId val="171280256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98440320"/>
+        <c:crossAx val="171281792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,18 +1067,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98440320"/>
+        <c:axId val="171281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98418048"/>
+        <c:crossAx val="171280256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -922,15 +1118,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -960,13 +1156,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -993,15 +1189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1028,13 +1224,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1345,7 +1541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,22 +1552,23 @@
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="9">
@@ -1381,7 +1578,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -1396,50 +1593,60 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="5">
-        <f>D54</f>
-        <v>30</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f>'Sprint 1'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f>'Sprint 2'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f>'Sprint 3'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f>SUM(H3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1453,35 +1660,43 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4">
-        <f>G3-H3</f>
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <f>H3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>I3-J3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <f>SUM(H4:J4)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="14">
+        <f>D54</f>
+        <v>132</v>
+      </c>
+      <c r="H4" s="14">
+        <f>G4-'Sprint 1'!J3</f>
+        <v>132</v>
+      </c>
+      <c r="I4" s="14">
+        <f>H4-'Sprint 2'!J3</f>
+        <v>132</v>
+      </c>
+      <c r="J4" s="14">
+        <f>I4-'Sprint 3'!J3</f>
+        <v>132</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1511,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
@@ -1519,14 +1734,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -1549,47 +1764,53 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
@@ -1619,15 +1840,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1858,12 @@
         <v>40</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,10 +1871,12 @@
         <v>41</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,10 +1884,12 @@
         <v>42</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1683,10 +1912,12 @@
         <v>44</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,10 +1925,12 @@
         <v>45</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1735,10 +1968,12 @@
         <v>48</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,10 +1981,12 @@
         <v>49</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1994,12 @@
         <v>50</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -1786,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -1795,35 +2034,39 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" ref="D32:D53" si="1">IF(C32="Easy",1,IF(C32="Mid",2,IF(C32="Hard",4,0)))</f>
@@ -1832,24 +2075,26 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="1"/>
@@ -1858,217 +2103,255 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D35" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D36" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D37" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D39" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D40" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D41" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D42" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D43" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D44" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D45" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D46" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D47" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D48" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D49" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D50" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D51" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D52" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D53" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" s="10">
         <f>SUM(D2:D53)</f>
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2087,22 +2370,23 @@
   <cols>
     <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="9">
@@ -2111,10 +2395,14 @@
       <c r="G1" s="9">
         <v>41339</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="9">
+        <v>41341</v>
+      </c>
+      <c r="I1" s="9">
+        <v>41351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2126,20 +2414,23 @@
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2151,33 +2442,52 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7">
+        <f>SUM(F3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="7">
         <f>C18</f>
         <v>30</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f>F3-I3</f>
+      <c r="G4" s="7">
+        <f>F4-G3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <f>G4-H3</f>
+        <v>30</v>
+      </c>
+      <c r="I4" s="14">
+        <f>H4-I3</f>
+        <v>30</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2189,19 +2499,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2213,21 +2523,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>21</v>
@@ -2237,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2249,31 +2559,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -2285,36 +2595,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
@@ -2326,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
@@ -2405,35 +2715,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -2441,20 +2752,23 @@
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -2462,29 +2776,48 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="5">
-        <f>C18</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7">
+        <f>SUM(F3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f>F3-I3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>F4-G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4-H3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>H4-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -2492,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
@@ -2500,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -2508,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -2516,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -2524,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -2532,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -2540,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
@@ -2548,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
@@ -2556,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
@@ -2564,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
@@ -2572,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -2605,35 +2938,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -2641,20 +2975,23 @@
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -2662,29 +2999,48 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="5">
-        <f>C18</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="7">
+        <f>SUM(F3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f>F3-I3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>F4-G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4-H3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>H4-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -2692,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
@@ -2700,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
@@ -2708,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -2716,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -2724,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -2732,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -2740,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
@@ -2748,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
@@ -2756,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
@@ -2764,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
@@ -2772,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">

--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="4" r:id="rId1"/>
@@ -533,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168271232"/>
-        <c:axId val="168277120"/>
+        <c:axId val="159100288"/>
+        <c:axId val="159106176"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="168271232"/>
+        <c:axId val="159100288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168277120"/>
+        <c:crossAx val="159106176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168277120"/>
+        <c:axId val="159106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168271232"/>
+        <c:crossAx val="159100288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170054784"/>
-        <c:axId val="170056320"/>
+        <c:axId val="171820544"/>
+        <c:axId val="171822080"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="170054784"/>
+        <c:axId val="171820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170056320"/>
+        <c:crossAx val="171822080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170056320"/>
+        <c:axId val="171822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170054784"/>
+        <c:crossAx val="171820544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -802,7 +802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -875,11 +874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171539072"/>
-        <c:axId val="171540864"/>
+        <c:axId val="171851136"/>
+        <c:axId val="171869312"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171539072"/>
+        <c:axId val="171851136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171540864"/>
+        <c:crossAx val="171869312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171540864"/>
+        <c:axId val="171869312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,14 +918,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171539072"/>
+        <c:crossAx val="171851136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,7 +971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1046,11 +1043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171280256"/>
-        <c:axId val="171281792"/>
+        <c:axId val="172014592"/>
+        <c:axId val="172016384"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171280256"/>
+        <c:axId val="172014592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171281792"/>
+        <c:crossAx val="172016384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171281792"/>
+        <c:axId val="172016384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,14 +1087,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171280256"/>
+        <c:crossAx val="172014592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1543,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2364,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="4" r:id="rId1"/>
@@ -533,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159100288"/>
-        <c:axId val="159106176"/>
+        <c:axId val="168271232"/>
+        <c:axId val="168277120"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="159100288"/>
+        <c:axId val="168271232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159106176"/>
+        <c:crossAx val="168277120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159106176"/>
+        <c:axId val="168277120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159100288"/>
+        <c:crossAx val="168271232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171820544"/>
-        <c:axId val="171822080"/>
+        <c:axId val="170054784"/>
+        <c:axId val="170056320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171820544"/>
+        <c:axId val="170054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171822080"/>
+        <c:crossAx val="170056320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171822080"/>
+        <c:axId val="170056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171820544"/>
+        <c:crossAx val="170054784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -802,6 +802,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -874,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171851136"/>
-        <c:axId val="171869312"/>
+        <c:axId val="171539072"/>
+        <c:axId val="171540864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171851136"/>
+        <c:axId val="171539072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171869312"/>
+        <c:crossAx val="171540864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171869312"/>
+        <c:axId val="171540864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,13 +919,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171851136"/>
+        <c:crossAx val="171539072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,6 +973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1043,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172014592"/>
-        <c:axId val="172016384"/>
+        <c:axId val="171280256"/>
+        <c:axId val="171281792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="172014592"/>
+        <c:axId val="171280256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172016384"/>
+        <c:crossAx val="171281792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1064,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172016384"/>
+        <c:axId val="171281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,13 +1090,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172014592"/>
+        <c:crossAx val="171280256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1539,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2360,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>SCRUM 1</t>
   </si>
@@ -513,13 +513,13 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168271232"/>
-        <c:axId val="168277120"/>
+        <c:axId val="68450944"/>
+        <c:axId val="69869952"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="168271232"/>
+        <c:axId val="68450944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168277120"/>
+        <c:crossAx val="69869952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168277120"/>
+        <c:axId val="69869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168271232"/>
+        <c:crossAx val="68450944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,13 +684,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170054784"/>
-        <c:axId val="170056320"/>
+        <c:axId val="70001408"/>
+        <c:axId val="70002944"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="170054784"/>
+        <c:axId val="70001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170056320"/>
+        <c:crossAx val="70002944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170056320"/>
+        <c:axId val="70002944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170054784"/>
+        <c:crossAx val="70001408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -852,16 +852,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171539072"/>
-        <c:axId val="171540864"/>
+        <c:axId val="70027904"/>
+        <c:axId val="70054272"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171539072"/>
+        <c:axId val="70027904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171540864"/>
+        <c:crossAx val="70054272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171540864"/>
+        <c:axId val="70054272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171539072"/>
+        <c:crossAx val="70027904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,7 +973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1046,11 +1045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171280256"/>
-        <c:axId val="171281792"/>
+        <c:axId val="71156480"/>
+        <c:axId val="71158016"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="171280256"/>
+        <c:axId val="71156480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171281792"/>
+        <c:crossAx val="71158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171281792"/>
+        <c:axId val="71158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,14 +1089,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171280256"/>
+        <c:crossAx val="71156480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1543,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1629,7 +1627,7 @@
       </c>
       <c r="H3" s="7">
         <f>'Sprint 1'!J3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>'Sprint 2'!J3</f>
@@ -1641,7 +1639,7 @@
       </c>
       <c r="K3" s="7">
         <f>SUM(H3:J3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1669,15 +1667,15 @@
       </c>
       <c r="H4" s="14">
         <f>G4-'Sprint 1'!J3</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="14">
         <f>H4-'Sprint 2'!J3</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="14">
         <f>I4-'Sprint 3'!J3</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
@@ -2364,7 +2362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2447,12 +2447,18 @@
       <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
       <c r="J3" s="7">
         <f>SUM(F3:I3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2475,15 +2481,15 @@
       </c>
       <c r="G4" s="7">
         <f>F4-G3</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7">
         <f>G4-H3</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="14">
         <f>H4-I3</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -2717,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2739,17 +2745,25 @@
       <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="9">
+        <v>41352</v>
+      </c>
+      <c r="G1" s="9">
+        <v>41353</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
@@ -2769,11 +2783,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>87</v>
@@ -2790,127 +2808,179 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="7">
         <f>C18</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7">
         <f>F4-G3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7">
         <f>G4-H3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I4" s="14">
         <f>H4-I3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C16" s="7">
         <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,7 +2997,7 @@
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Burndown Charts.xlsx
+++ b/Burndown Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="8250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Burndown" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>SCRUM 1</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Hours Remaining</t>
+  </si>
+  <si>
+    <t>*Change board size – Hard</t>
+  </si>
+  <si>
+    <t>Only allow users to effect pieces they control – Easy</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +529,10 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68450944"/>
-        <c:axId val="69869952"/>
+        <c:axId val="91603712"/>
+        <c:axId val="91605248"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="68450944"/>
+        <c:axId val="91603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69869952"/>
+        <c:crossAx val="91605248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69869952"/>
+        <c:axId val="91605248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68450944"/>
+        <c:crossAx val="91603712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,11 +717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70001408"/>
-        <c:axId val="70002944"/>
+        <c:axId val="92154496"/>
+        <c:axId val="92180864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="70001408"/>
+        <c:axId val="92154496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70002944"/>
+        <c:crossAx val="92180864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70002944"/>
+        <c:axId val="92180864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70001408"/>
+        <c:crossAx val="92154496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -858,10 +871,10 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,11 +888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70027904"/>
-        <c:axId val="70054272"/>
+        <c:axId val="92242688"/>
+        <c:axId val="92244224"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="70027904"/>
+        <c:axId val="92242688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70054272"/>
+        <c:crossAx val="92244224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70054272"/>
+        <c:axId val="92244224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70027904"/>
+        <c:crossAx val="92242688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,6 +986,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1022,16 +1036,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,11 +1059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71156480"/>
-        <c:axId val="71158016"/>
+        <c:axId val="92355200"/>
+        <c:axId val="92369280"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="71156480"/>
+        <c:axId val="92355200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71158016"/>
+        <c:crossAx val="92369280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71158016"/>
+        <c:axId val="92369280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,13 +1103,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71156480"/>
+        <c:crossAx val="92355200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1608,14 +1623,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1631,7 +1646,7 @@
       </c>
       <c r="I3" s="7">
         <f>'Sprint 2'!J3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="7">
         <f>'Sprint 3'!I3</f>
@@ -1639,7 +1654,7 @@
       </c>
       <c r="K3" s="7">
         <f>SUM(H3:J3)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1649,7 +1664,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -1671,40 +1686,40 @@
       </c>
       <c r="I4" s="14">
         <f>H4-'Sprint 2'!J3</f>
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J4" s="14">
         <f>I4-'Sprint 3'!J3</f>
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
@@ -1725,277 +1740,263 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="11">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="11">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>81</v>
@@ -2016,293 +2017,287 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="20">
         <f t="shared" ref="D32:D53" si="1">IF(C32="Easy",1,IF(C32="Mid",2,IF(C32="Hard",4,0)))</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2362,9 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2403,13 +2396,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18">
         <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
         <v>1</v>
       </c>
@@ -2723,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2746,16 +2739,20 @@
         <v>5</v>
       </c>
       <c r="F1" s="9">
+        <v>41351</v>
+      </c>
+      <c r="G1" s="9">
         <v>41352</v>
       </c>
-      <c r="G1" s="9">
-        <v>41353</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="9">
+        <v>41355</v>
+      </c>
+      <c r="I1" s="9">
+        <v>41357</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2799,22 +2796,28 @@
       <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5</v>
+      </c>
       <c r="J3" s="7">
         <f>SUM(F3:I3)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="H4" s="7">
         <f>G4-H3</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="14">
         <f>H4-I3</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -2843,10 +2846,10 @@
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2855,10 +2858,10 @@
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2867,10 +2870,10 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2879,10 +2882,10 @@
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2891,10 +2894,10 @@
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2903,10 +2906,10 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2915,10 +2918,10 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2927,22 +2930,22 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3010,7 +3013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3032,17 +3037,25 @@
       <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="9">
+        <v>41358</v>
+      </c>
+      <c r="G1" s="9">
+        <v>41358</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="7">
-        <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
-        <v>0</v>
+        <f t="shared" ref="C2" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <v>1</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="7" t="s">
@@ -3062,11 +3075,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="C3" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C3:C16" si="1">IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>87</v>
@@ -3074,135 +3091,185 @@
       <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>5</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="7">
         <f>SUM(F3:I3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="7">
         <f>C18</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7">
         <f>F4-G3</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f>G4-H3</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="14">
         <f>H4-I3</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="C5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="C9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3210,7 +3277,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C17" si="2">IF(B17="Easy",1,IF(B17="Mid",2,IF(B17="Hard",4,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3220,7 +3287,7 @@
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
